--- a/artfynd/A 43845-2021.xlsx
+++ b/artfynd/A 43845-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AY9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -956,6 +956,644 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>112388103</v>
+      </c>
+      <c r="B4" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Mörtsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>557984</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7069574</v>
+      </c>
+      <c r="S4" t="n">
+        <v>25</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Fjällsjö</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Maria Johansson</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Maria Johansson</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112388110</v>
+      </c>
+      <c r="B5" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Mörtsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>557867</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7069706</v>
+      </c>
+      <c r="S5" t="n">
+        <v>25</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Fjällsjö</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Maria Johansson</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Maria Johansson</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>112388101</v>
+      </c>
+      <c r="B6" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Mörtsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>557984</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7069575</v>
+      </c>
+      <c r="S6" t="n">
+        <v>25</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Fjällsjö</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Maria Johansson</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Maria Johansson</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>112388107</v>
+      </c>
+      <c r="B7" t="n">
+        <v>81371</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1312</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Gammelgransskål</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pseudographis pinicola</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Mörtsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>557867</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7069709</v>
+      </c>
+      <c r="S7" t="n">
+        <v>25</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Fjällsjö</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Maria Johansson</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Maria Johansson</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>112388115</v>
+      </c>
+      <c r="B8" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Mörtsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>557811</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7069647</v>
+      </c>
+      <c r="S8" t="n">
+        <v>25</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Fjällsjö</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Maria Johansson</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Maria Johansson</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>112388117</v>
+      </c>
+      <c r="B9" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Mörtsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>557810</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7069645</v>
+      </c>
+      <c r="S9" t="n">
+        <v>25</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Fjällsjö</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Maria Johansson</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Maria Johansson</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 43845-2021.xlsx
+++ b/artfynd/A 43845-2021.xlsx
@@ -958,10 +958,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112388103</v>
+        <v>112388117</v>
       </c>
       <c r="B4" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1001,10 +1001,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>557984</v>
+        <v>557810</v>
       </c>
       <c r="R4" t="n">
-        <v>7069574</v>
+        <v>7069645</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1064,10 +1064,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112388110</v>
+        <v>112388107</v>
       </c>
       <c r="B5" t="n">
-        <v>77636</v>
+        <v>81385</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1080,21 +1080,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1110,7 +1110,7 @@
         <v>557867</v>
       </c>
       <c r="R5" t="n">
-        <v>7069706</v>
+        <v>7069709</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1170,10 +1170,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112388101</v>
+        <v>112388110</v>
       </c>
       <c r="B6" t="n">
-        <v>96720</v>
+        <v>77650</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1182,31 +1182,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1214,10 +1213,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>557984</v>
+        <v>557867</v>
       </c>
       <c r="R6" t="n">
-        <v>7069575</v>
+        <v>7069706</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1277,10 +1276,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112388107</v>
+        <v>112388115</v>
       </c>
       <c r="B7" t="n">
-        <v>81371</v>
+        <v>96735</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1289,30 +1288,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1312</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1320,10 +1320,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>557867</v>
+        <v>557811</v>
       </c>
       <c r="R7" t="n">
-        <v>7069709</v>
+        <v>7069647</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1383,10 +1383,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112388115</v>
+        <v>112388103</v>
       </c>
       <c r="B8" t="n">
-        <v>96720</v>
+        <v>77650</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1395,31 +1395,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1427,10 +1426,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>557811</v>
+        <v>557984</v>
       </c>
       <c r="R8" t="n">
-        <v>7069647</v>
+        <v>7069574</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1490,10 +1489,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112388117</v>
+        <v>112388101</v>
       </c>
       <c r="B9" t="n">
-        <v>77636</v>
+        <v>96735</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1502,30 +1501,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>557810</v>
+        <v>557984</v>
       </c>
       <c r="R9" t="n">
-        <v>7069645</v>
+        <v>7069575</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>

--- a/artfynd/A 43845-2021.xlsx
+++ b/artfynd/A 43845-2021.xlsx
@@ -1064,10 +1064,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112388107</v>
+        <v>112388101</v>
       </c>
       <c r="B5" t="n">
-        <v>81385</v>
+        <v>96735</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1076,30 +1076,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1312</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1107,10 +1108,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>557867</v>
+        <v>557984</v>
       </c>
       <c r="R5" t="n">
-        <v>7069709</v>
+        <v>7069575</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1170,10 +1171,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112388110</v>
+        <v>112388107</v>
       </c>
       <c r="B6" t="n">
-        <v>77650</v>
+        <v>81385</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1186,21 +1187,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1216,7 +1217,7 @@
         <v>557867</v>
       </c>
       <c r="R6" t="n">
-        <v>7069706</v>
+        <v>7069709</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1276,10 +1277,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112388115</v>
+        <v>112388110</v>
       </c>
       <c r="B7" t="n">
-        <v>96735</v>
+        <v>77650</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1288,31 +1289,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1320,10 +1320,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>557811</v>
+        <v>557867</v>
       </c>
       <c r="R7" t="n">
-        <v>7069647</v>
+        <v>7069706</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1383,10 +1383,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112388103</v>
+        <v>112388115</v>
       </c>
       <c r="B8" t="n">
-        <v>77650</v>
+        <v>96735</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1395,30 +1395,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1426,10 +1427,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>557984</v>
+        <v>557811</v>
       </c>
       <c r="R8" t="n">
-        <v>7069574</v>
+        <v>7069647</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1489,10 +1490,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112388101</v>
+        <v>112388103</v>
       </c>
       <c r="B9" t="n">
-        <v>96735</v>
+        <v>77650</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1501,31 +1502,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>557984</v>
       </c>
       <c r="R9" t="n">
-        <v>7069575</v>
+        <v>7069574</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
